--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1579266.192276482</v>
+        <v>1629482.455915602</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453903</v>
+        <v>5562152.400446147</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.11917867</v>
+        <v>2921012.045488845</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7493338.729227209</v>
+        <v>7689629.991356682</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.6227185827506</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>118.1909295336519</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -823,7 +825,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>151.0897429533502</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>266.272328390067</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>204.150133759479</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -911,7 +913,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>252.6871036901638</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1108,16 +1110,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>271.9058716854025</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>240.9103491438664</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>51.56505828087236</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>107.3028185141092</v>
+        <v>239.6441761814974</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1382,10 +1384,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>16.55447303929008</v>
       </c>
       <c r="H11" t="n">
-        <v>21.41685297653048</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>166.7165542762734</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1581,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1616,10 +1618,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>178.8846941420544</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1661,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>21.1034042979565</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>373.8316553010462</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1850,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1898,10 +1900,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>117.0302840219881</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -2020,7 +2022,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>52.63920375263922</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,13 +2086,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>91.8634291666399</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>384.5327953590509</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>19.59015717729947</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -2287,22 +2289,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>22.88282737275503</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>351.2228221674562</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2330,7 +2332,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>98.94574135710778</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>180.6077930059077</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>187.1291969431396</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2618,10 +2620,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>351.080144279057</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2718,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.438471529178141</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>19.50042337073144</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2795,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E29" t="n">
-        <v>275.5120998317608</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2807,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2956,7 +2958,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>103.5299196315131</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128935</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3044,7 +3046,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3092,7 +3094,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>88.08110241150655</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>85.91956089298859</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>197.5289107028774</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>256.8454395874269</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.5952110672386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>42.43741174507669</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3721,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>28.0149076090946</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3749,10 +3751,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>178.8846941420544</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>60.60442588782249</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>144.2018606410491</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3964,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672372</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>79.71867512574262</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3989,7 +3991,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>338.1753487462616</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4141,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>176.016909168471</v>
+        <v>179.667585260291</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2203.626436560717</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C2" t="n">
-        <v>1793.501845873987</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D2" t="n">
-        <v>1389.037915967048</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E2" t="n">
-        <v>974.6977004839443</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F2" t="n">
-        <v>553.6672884376319</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G2" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>850.932214224331</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L2" t="n">
-        <v>1563.523614036569</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M2" t="n">
-        <v>1563.523614036569</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N2" t="n">
-        <v>2038.487731972852</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O2" t="n">
-        <v>2038.487731972852</v>
+        <v>2998.601737025188</v>
       </c>
       <c r="P2" t="n">
-        <v>2567.644429892003</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2794.081007170961</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>2794.081007170961</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U2" t="n">
-        <v>2794.081007170961</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="V2" t="n">
-        <v>2794.081007170961</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="W2" t="n">
-        <v>2794.081007170961</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X2" t="n">
-        <v>2794.081007170961</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y2" t="n">
-        <v>2393.144334119051</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>2318.137507400892</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>2184.142436149837</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>2067.24527836923</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>1946.752462361558</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>1837.792582544062</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>1730.802469858401</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>1660.055256894117</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="J3" t="n">
-        <v>1075.685744088994</v>
+        <v>1832.11952307699</v>
       </c>
       <c r="K3" t="n">
-        <v>1075.685744088994</v>
+        <v>2287.925779342289</v>
       </c>
       <c r="L3" t="n">
-        <v>1736.773916008282</v>
+        <v>2287.925779342289</v>
       </c>
       <c r="M3" t="n">
-        <v>1875.560527146982</v>
+        <v>2287.925779342289</v>
       </c>
       <c r="N3" t="n">
-        <v>1875.560527146982</v>
+        <v>2287.925779342289</v>
       </c>
       <c r="O3" t="n">
-        <v>2579.517617692877</v>
+        <v>2991.882869888183</v>
       </c>
       <c r="P3" t="n">
-        <v>2579.517617692877</v>
+        <v>3335.951396680874</v>
       </c>
       <c r="Q3" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>3577.805851479166</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>3418.463987666174</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>3221.113176804393</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>3007.401649797427</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>2794.168481533755</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>2617.842499672648</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>2458.440540036478</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>389.1752587629107</v>
+        <v>673.2658822114255</v>
       </c>
       <c r="C4" t="n">
-        <v>218.0818863246272</v>
+        <v>502.172509773142</v>
       </c>
       <c r="D4" t="n">
-        <v>58.5872416475372</v>
+        <v>342.677865096052</v>
       </c>
       <c r="E4" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="F4" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="G4" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U4" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V4" t="n">
-        <v>1319.024190399633</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W4" t="n">
-        <v>1039.954525908507</v>
+        <v>1324.045149357022</v>
       </c>
       <c r="X4" t="n">
-        <v>801.6106637681904</v>
+        <v>1085.701287216705</v>
       </c>
       <c r="Y4" t="n">
-        <v>576.8749651569551</v>
+        <v>860.9655886054699</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2316.283260348765</v>
+        <v>2218.755112140477</v>
       </c>
       <c r="C5" t="n">
-        <v>1906.158669662036</v>
+        <v>1808.630521453747</v>
       </c>
       <c r="D5" t="n">
-        <v>1699.94641333933</v>
+        <v>1404.166591546807</v>
       </c>
       <c r="E5" t="n">
-        <v>1285.606197856226</v>
+        <v>989.8263760637043</v>
       </c>
       <c r="F5" t="n">
-        <v>864.5757858099139</v>
+        <v>568.7959640173918</v>
       </c>
       <c r="G5" t="n">
-        <v>455.8475017027461</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K5" t="n">
-        <v>596.7467427565767</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L5" t="n">
-        <v>1309.338142568815</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M5" t="n">
-        <v>2034.355257957088</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N5" t="n">
-        <v>2034.355257957088</v>
+        <v>2721.00399815246</v>
       </c>
       <c r="O5" t="n">
-        <v>2677.986114374193</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="P5" t="n">
-        <v>2929.36208237686</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U5" t="n">
-        <v>2672.30159063637</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V5" t="n">
-        <v>2322.464035972851</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W5" t="n">
-        <v>2322.464035972851</v>
+        <v>3430.556362687924</v>
       </c>
       <c r="X5" t="n">
-        <v>2322.464035972851</v>
+        <v>3029.912964856876</v>
       </c>
       <c r="Y5" t="n">
-        <v>2322.464035972851</v>
+        <v>2628.976291804966</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K6" t="n">
-        <v>58.5872416475372</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L6" t="n">
-        <v>719.6754135668255</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="M6" t="n">
-        <v>719.6754135668255</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="N6" t="n">
-        <v>1401.119346952143</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="O6" t="n">
-        <v>2105.076437498037</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>699.6935290891345</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>528.600156650851</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>369.1055119737611</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>208.1946968420806</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S7" t="n">
-        <v>1401.594370148297</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T7" t="n">
-        <v>1162.045631125</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U7" t="n">
-        <v>887.3932354831788</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V7" t="n">
-        <v>887.3932354831788</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W7" t="n">
-        <v>887.3932354831788</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X7" t="n">
-        <v>887.3932354831788</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y7" t="n">
-        <v>887.3932354831788</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1950.493870205067</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C8" t="n">
-        <v>1707.15008319106</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D8" t="n">
-        <v>1302.686153284121</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E8" t="n">
-        <v>888.3459378010175</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F8" t="n">
-        <v>467.315525754705</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K8" t="n">
-        <v>850.932214224331</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.557412652331</v>
+        <v>983.5086993982285</v>
       </c>
       <c r="M8" t="n">
-        <v>1031.557412652331</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N8" t="n">
-        <v>1756.574528040604</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O8" t="n">
-        <v>2400.205384457709</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>2707.155598323719</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U8" t="n">
-        <v>2707.155598323719</v>
+        <v>3276.22238465039</v>
       </c>
       <c r="V8" t="n">
-        <v>2357.3180436602</v>
+        <v>2926.384829986871</v>
       </c>
       <c r="W8" t="n">
-        <v>2357.3180436602</v>
+        <v>2542.624529122039</v>
       </c>
       <c r="X8" t="n">
-        <v>1956.674645829152</v>
+        <v>2542.624529122039</v>
       </c>
       <c r="Y8" t="n">
-        <v>1956.674645829152</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L9" t="n">
-        <v>839.4134544636129</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="M9" t="n">
-        <v>839.4134544636129</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="N9" t="n">
-        <v>839.4134544636129</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="O9" t="n">
-        <v>1543.370545009507</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>491.791133812211</v>
+        <v>244.8092896655806</v>
       </c>
       <c r="C10" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>491.791133812211</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>324.5407427377544</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1401.594370148297</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="T10" t="n">
-        <v>1162.045631125</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="U10" t="n">
-        <v>879.2474836711237</v>
+        <v>1416.723045728058</v>
       </c>
       <c r="V10" t="n">
-        <v>770.8607983033367</v>
+        <v>1174.658221302303</v>
       </c>
       <c r="W10" t="n">
-        <v>491.791133812211</v>
+        <v>895.5885568111769</v>
       </c>
       <c r="X10" t="n">
-        <v>491.791133812211</v>
+        <v>657.2446946708603</v>
       </c>
       <c r="Y10" t="n">
-        <v>491.791133812211</v>
+        <v>432.508996059625</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1734.443928795629</v>
+        <v>1740.396755289059</v>
       </c>
       <c r="C11" t="n">
-        <v>1324.319338108899</v>
+        <v>1330.272164602329</v>
       </c>
       <c r="D11" t="n">
-        <v>1324.319338108899</v>
+        <v>925.8082346953897</v>
       </c>
       <c r="E11" t="n">
-        <v>909.9791226257958</v>
+        <v>511.4680192122864</v>
       </c>
       <c r="F11" t="n">
-        <v>488.9487105794833</v>
+        <v>90.43760716597399</v>
       </c>
       <c r="G11" t="n">
-        <v>80.22042647231547</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>312.7727131152915</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>312.7727131152915</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L11" t="n">
-        <v>1025.36411292753</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M11" t="n">
-        <v>1750.381228315802</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N11" t="n">
-        <v>1750.381228315802</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O11" t="n">
-        <v>2394.012084732907</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P11" t="n">
-        <v>2608.201075581568</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U11" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V11" t="n">
-        <v>2929.36208237686</v>
+        <v>3335.958306701338</v>
       </c>
       <c r="W11" t="n">
-        <v>2545.601781512029</v>
+        <v>2952.198005836506</v>
       </c>
       <c r="X11" t="n">
-        <v>2545.601781512029</v>
+        <v>2551.554608005459</v>
       </c>
       <c r="Y11" t="n">
-        <v>2144.665108460119</v>
+        <v>2150.617934953549</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="M12" t="n">
-        <v>676.1022315638701</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N12" t="n">
-        <v>1401.119346952143</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>1331.450327403457</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1696.244261831478</v>
+        <v>1483.336263548569</v>
       </c>
       <c r="C14" t="n">
-        <v>1286.119671144748</v>
+        <v>1073.211672861839</v>
       </c>
       <c r="D14" t="n">
-        <v>881.6557412378083</v>
+        <v>668.7477429548999</v>
       </c>
       <c r="E14" t="n">
-        <v>467.315525754705</v>
+        <v>254.4075274717966</v>
       </c>
       <c r="F14" t="n">
-        <v>467.315525754705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>596.7467427565767</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>795.1403494936445</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M14" t="n">
-        <v>1520.157464881917</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N14" t="n">
-        <v>2245.17458027019</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O14" t="n">
-        <v>2888.805436687295</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P14" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q14" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V14" t="n">
-        <v>2929.36208237686</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="W14" t="n">
-        <v>2908.045512378924</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="X14" t="n">
-        <v>2507.402114547877</v>
+        <v>2294.494116264969</v>
       </c>
       <c r="Y14" t="n">
-        <v>2106.465441495967</v>
+        <v>1893.557443213059</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M15" t="n">
-        <v>783.60435703581</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N15" t="n">
-        <v>1508.621472424083</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>256.1480313746799</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5546,19 +5548,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>463.2724568410765</v>
+        <v>644.659997958315</v>
       </c>
       <c r="C19" t="n">
-        <v>463.2724568410765</v>
+        <v>644.659997958315</v>
       </c>
       <c r="D19" t="n">
-        <v>463.2724568410765</v>
+        <v>644.659997958315</v>
       </c>
       <c r="E19" t="n">
-        <v>463.2724568410765</v>
+        <v>644.659997958315</v>
       </c>
       <c r="F19" t="n">
-        <v>463.2724568410765</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>296.0220657666199</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>146.4146105720766</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>1254.571728532997</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V19" t="n">
-        <v>980.6859834725187</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W19" t="n">
-        <v>701.6163189813931</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X19" t="n">
-        <v>463.2724568410765</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="Y19" t="n">
-        <v>463.2724568410765</v>
+        <v>832.3597043523594</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
         <v>899.2322418529996</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5837,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>871.7775684292137</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="C22" t="n">
-        <v>871.7775684292137</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F22" t="n">
         <v>526.4475898552967</v>
@@ -5935,25 +5937,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>1297.821136963575</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>1297.821136963575</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>1297.821136963575</v>
+        <v>805.5172543464223</v>
       </c>
       <c r="W22" t="n">
-        <v>1297.821136963575</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="X22" t="n">
-        <v>1059.477274823258</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="Y22" t="n">
-        <v>1059.477274823258</v>
+        <v>526.4475898552967</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5971,13 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
         <v>93.2436976906228</v>
@@ -5990,7 +5992,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
         <v>3132.785987910289</v>
@@ -6178,19 +6180,19 @@
         <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="V25" t="n">
-        <v>3594.287766548796</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="W25" t="n">
-        <v>3315.218102057671</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="X25" t="n">
-        <v>3132.785987910289</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>4051.026465773143</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X26" t="n">
-        <v>3314.038978003258</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6305,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.6240469015422</v>
+        <v>3737.083252513247</v>
       </c>
       <c r="C28" t="n">
-        <v>745.5306744632587</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="D28" t="n">
-        <v>586.0360297861687</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="E28" t="n">
-        <v>425.1252146544881</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="F28" t="n">
-        <v>260.4940887650794</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>4149.518657518526</v>
       </c>
       <c r="V28" t="n">
-        <v>1348.756849250995</v>
+        <v>4149.518657518526</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.756849250995</v>
+        <v>4149.518657518526</v>
       </c>
       <c r="X28" t="n">
-        <v>1329.059451906822</v>
+        <v>4149.518657518526</v>
       </c>
       <c r="Y28" t="n">
-        <v>1104.323753295587</v>
+        <v>3924.782958907291</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6445,16 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E29" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6552,7 +6554,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>4061.209023079746</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>3890.115650641462</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="E31" t="n">
         <v>3730.621005964372</v>
@@ -6643,28 +6645,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>4285.944721690981</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>4285.944721690981</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>4285.944721690981</v>
       </c>
       <c r="W31" t="n">
-        <v>4662.18488453114</v>
+        <v>4285.944721690981</v>
       </c>
       <c r="X31" t="n">
-        <v>4634.555243216706</v>
+        <v>4285.944721690981</v>
       </c>
       <c r="Y31" t="n">
-        <v>4409.819544605471</v>
+        <v>4061.209023079746</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H32" t="n">
         <v>179.5954603735497</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.978400477999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4182.917908737509</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>3833.080354073989</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W32" t="n">
-        <v>3449.320053209158</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="33">
@@ -6789,7 +6791,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>822.430920226155</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C34" t="n">
-        <v>822.430920226155</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D34" t="n">
-        <v>735.6434849807119</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E34" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6883,25 +6885,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.844446857597</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V34" t="n">
-        <v>1339.844446857597</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W34" t="n">
-        <v>1060.774782366472</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="X34" t="n">
-        <v>822.430920226155</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y34" t="n">
-        <v>822.430920226155</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>3084.569701873628</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N36" t="n">
-        <v>3958.227793985246</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.2436976906228</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="C37" t="n">
-        <v>93.2436976906228</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T37" t="n">
-        <v>1383.093855288175</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U37" t="n">
-        <v>1100.295707834299</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="V37" t="n">
-        <v>826.4099627738212</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="W37" t="n">
-        <v>547.3402982826956</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="X37" t="n">
-        <v>308.996436142379</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.2436976906228</v>
+        <v>3891.531821096053</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V38" t="n">
-        <v>4047.636833531609</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7262,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N39" t="n">
         <v>1435.775802995229</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>136.1097701603972</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J40" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K40" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L40" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M40" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N40" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O40" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U40" t="n">
-        <v>1339.844446857597</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V40" t="n">
-        <v>1065.958701797119</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W40" t="n">
-        <v>786.8890373059935</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="X40" t="n">
-        <v>548.5451751656769</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="Y40" t="n">
-        <v>323.8094765544416</v>
+        <v>3565.989880074963</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1707.15008319106</v>
+        <v>1483.336263548569</v>
       </c>
       <c r="C41" t="n">
-        <v>1707.15008319106</v>
+        <v>1073.211672861839</v>
       </c>
       <c r="D41" t="n">
-        <v>1302.686153284121</v>
+        <v>668.7477429548999</v>
       </c>
       <c r="E41" t="n">
-        <v>888.3459378010175</v>
+        <v>254.4075274717966</v>
       </c>
       <c r="F41" t="n">
-        <v>467.315525754705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>312.7727131152915</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K41" t="n">
-        <v>850.932214224331</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L41" t="n">
-        <v>850.932214224331</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M41" t="n">
-        <v>1520.157464881917</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N41" t="n">
-        <v>2245.17458027019</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O41" t="n">
-        <v>2888.805436687295</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P41" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.36208237686</v>
+        <v>3428.735369624367</v>
       </c>
       <c r="V41" t="n">
-        <v>2579.524527713341</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="W41" t="n">
-        <v>2518.30793590746</v>
+        <v>2695.137514096016</v>
       </c>
       <c r="X41" t="n">
-        <v>2518.30793590746</v>
+        <v>2294.494116264969</v>
       </c>
       <c r="Y41" t="n">
-        <v>2117.37126285555</v>
+        <v>1893.557443213059</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>251.4000992101705</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K42" t="n">
-        <v>707.2063554754692</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L42" t="n">
-        <v>1368.294527394758</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M42" t="n">
-        <v>1368.294527394758</v>
+        <v>542.5899304202851</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.294527394758</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="O42" t="n">
-        <v>1368.294527394758</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P42" t="n">
-        <v>1755.231972814054</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>229.6806140858207</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="C43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="D43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="E43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="F43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2156.396964744008</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2170.479514149218</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2325.031841871456</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2584.928942151516</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>2874.19299859201</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3155.03178098626</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3414.592391312734</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3620.267831562346</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T43" t="n">
-        <v>1587.986138268387</v>
+        <v>3446.247122341559</v>
       </c>
       <c r="U43" t="n">
-        <v>1305.187990814512</v>
+        <v>3163.448974887683</v>
       </c>
       <c r="V43" t="n">
-        <v>1159.529545722543</v>
+        <v>2889.563229827205</v>
       </c>
       <c r="W43" t="n">
-        <v>880.4598812314171</v>
+        <v>2610.493565336079</v>
       </c>
       <c r="X43" t="n">
-        <v>642.1160190911004</v>
+        <v>2372.149703195762</v>
       </c>
       <c r="Y43" t="n">
-        <v>417.3803204798651</v>
+        <v>2156.396964744008</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1384.60637413211</v>
+        <v>2132.40334945755</v>
       </c>
       <c r="C44" t="n">
-        <v>974.4817834453798</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D44" t="n">
-        <v>893.957869176953</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E44" t="n">
-        <v>479.6176536938497</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F44" t="n">
-        <v>58.5872416475372</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K44" t="n">
-        <v>58.5872416475372</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L44" t="n">
-        <v>58.5872416475372</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M44" t="n">
-        <v>669.8397601674739</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N44" t="n">
-        <v>1394.856875555747</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O44" t="n">
-        <v>2038.487731972852</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P44" t="n">
-        <v>2567.644429892003</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>2929.36208237686</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>2579.524527713341</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W44" t="n">
-        <v>2195.764226848509</v>
+        <v>3344.204600004997</v>
       </c>
       <c r="X44" t="n">
-        <v>2195.764226848509</v>
+        <v>2943.561202173949</v>
       </c>
       <c r="Y44" t="n">
-        <v>1794.827553796599</v>
+        <v>2542.624529122039</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1561.703728412895</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>1427.70865716184</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>1310.811499381233</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>1190.318683373561</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>1081.358803556065</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>974.3686908704041</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>903.6214779061202</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>882.8728865263604</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>882.8728865263604</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K45" t="n">
-        <v>882.8728865263604</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L45" t="n">
-        <v>882.8728865263604</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="M45" t="n">
-        <v>1607.890001914633</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="N45" t="n">
-        <v>2332.907117302906</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="O45" t="n">
-        <v>2929.36208237686</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P45" t="n">
-        <v>2929.36208237686</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q45" t="n">
-        <v>2929.36208237686</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2929.36208237686</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>2821.372072491169</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>2662.030208678177</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>2464.679397816396</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>2250.96787080943</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>2037.734702545758</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1861.408720684651</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>1702.006761048481</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>386.7484478536743</v>
+        <v>405.5974341911624</v>
       </c>
       <c r="C46" t="n">
-        <v>386.7484478536743</v>
+        <v>405.5974341911624</v>
       </c>
       <c r="D46" t="n">
-        <v>386.7484478536743</v>
+        <v>405.5974341911624</v>
       </c>
       <c r="E46" t="n">
-        <v>225.8376327219938</v>
+        <v>405.5974341911624</v>
       </c>
       <c r="F46" t="n">
-        <v>225.8376327219938</v>
+        <v>240.9663083017537</v>
       </c>
       <c r="G46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1502.713419943787</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1316.321651823697</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1076.772912800399</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U46" t="n">
-        <v>898.978055054469</v>
+        <v>1421.632404494318</v>
       </c>
       <c r="V46" t="n">
-        <v>625.092309993991</v>
+        <v>1147.74665943384</v>
       </c>
       <c r="W46" t="n">
-        <v>625.092309993991</v>
+        <v>868.6769949427144</v>
       </c>
       <c r="X46" t="n">
-        <v>386.7484478536743</v>
+        <v>630.3331328023978</v>
       </c>
       <c r="Y46" t="n">
-        <v>386.7484478536743</v>
+        <v>405.5974341911624</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>572.6740260457935</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>422.413476265543</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8058,13 +8060,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.7527798381148</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
@@ -8073,7 +8075,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>401.8036014600665</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>632.7318453389136</v>
@@ -8222,19 +8224,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>462.6427125186164</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>347.5644824754977</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>741.5205988334645</v>
+        <v>514.5673383305425</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>277.9350934446626</v>
+        <v>470.8725506506143</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>384.4175102257753</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>514.5673383305425</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>276.2952757435641</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>310.0018792896326</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8772,13 +8774,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>529.7246381472005</v>
       </c>
       <c r="M12" t="n">
-        <v>681.3167988054204</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
@@ -8930,25 +8932,25 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>295.8829806255396</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,13 +9014,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>660.231241700964</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9951,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>230.0378556308711</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10200,10 +10202,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10437,10 +10439,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10671,7 +10673,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>531.174398074769</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
@@ -10908,10 +10910,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N39" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
         <v>768.8192472281761</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2753261313751</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>445.1055394667393</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11297,28 +11299,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>710.7170108408199</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>660.2312417009638</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>388.086528226806</v>
       </c>
       <c r="H11" t="n">
-        <v>286.3825594220287</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23315,13 +23317,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>19.10615505383055</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23504,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>237.9354137837949</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23549,13 +23551,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>358.8192935582266</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>32.28731256679839</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23786,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23899,7 +23901,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>45.95453060852651</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.54338168407789</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23972,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>138.3095410530196</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>248.2640602371182</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24209,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24367,22 +24369,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>181.0244246222293</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>55.35263051300575</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24506,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>45.84716204233382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>278.531694450159</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>216.460000148182</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24683,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E29" t="n">
-        <v>134.6847134965114</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>133.6233320015518</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -24901,7 +24903,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176241</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>308.5558614412304</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>71.98013733733049</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25123,25 +25125,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>38.43151281603608</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>23.1247263919102</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.893130557884348</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>126.945026968824</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25561,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>248.2640602371198</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>237.9354137837949</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25682,16 +25684,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>319.3182719683606</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25837,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>126.9450269688242</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557885684</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>320.7006154821274</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -25922,13 +25924,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>41.74734910992146</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26029,10 +26031,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>103.953256810866</v>
+        <v>100.3025807190461</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>512296.289480927</v>
+        <v>579476.7679552571</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>512296.289480927</v>
+        <v>579476.7679552571</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666191.9353307156</v>
+        <v>666191.9353307155</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666191.9353307155</v>
+        <v>666191.9353307154</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666191.9353307154</v>
+        <v>666191.9353307151</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666191.9353307155</v>
+        <v>666191.9353307154</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666191.9353307155</v>
+        <v>666191.9353307154</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666191.9353307154</v>
+        <v>666191.9353307153</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666191.9353307156</v>
+        <v>666191.9353307153</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666191.9353307157</v>
+        <v>666191.9353307155</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>512296.289480927</v>
+        <v>579476.7679552571</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>512296.2894809268</v>
+        <v>579476.7679552572</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390917.7432778966</v>
+        <v>390917.7432778967</v>
       </c>
       <c r="C2" t="n">
-        <v>390917.7432778967</v>
+        <v>390917.7432778969</v>
       </c>
       <c r="D2" t="n">
-        <v>390917.7432778965</v>
+        <v>390917.7432778968</v>
       </c>
       <c r="E2" t="n">
-        <v>267285.0205987446</v>
+        <v>302335.7050201343</v>
       </c>
       <c r="F2" t="n">
-        <v>267285.0205987446</v>
+        <v>302335.7050201342</v>
       </c>
       <c r="G2" t="n">
+        <v>347578.4010421129</v>
+      </c>
+      <c r="H2" t="n">
         <v>347578.4010421128</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>347578.401042113</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>347578.4010421127</v>
       </c>
-      <c r="J2" t="n">
-        <v>347578.401042113</v>
-      </c>
       <c r="K2" t="n">
-        <v>347578.401042113</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="L2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="M2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421129</v>
       </c>
       <c r="N2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="O2" t="n">
-        <v>267285.0205987447</v>
+        <v>302335.7050201342</v>
       </c>
       <c r="P2" t="n">
-        <v>267285.0205987446</v>
+        <v>302335.7050201343</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118142.4647237391</v>
+        <v>84888.90953886867</v>
       </c>
       <c r="C4" t="n">
-        <v>118142.4647237391</v>
+        <v>84888.9095388687</v>
       </c>
       <c r="D4" t="n">
-        <v>118142.4647237391</v>
+        <v>84888.90953886867</v>
       </c>
       <c r="E4" t="n">
-        <v>533.3187768863875</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="F4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="G4" t="n">
         <v>738.1279301446466</v>
@@ -26439,7 +26441,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="K4" t="n">
         <v>738.1279301446466</v>
@@ -26454,10 +26456,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
       <c r="P4" t="n">
-        <v>533.3187768863874</v>
+        <v>622.7246651156232</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50802.77738106588</v>
+        <v>-92421.60496576154</v>
       </c>
       <c r="C6" t="n">
-        <v>194621.3749020293</v>
+        <v>216377.1366462824</v>
       </c>
       <c r="D6" t="n">
-        <v>194621.3749020292</v>
+        <v>216377.1366462824</v>
       </c>
       <c r="E6" t="n">
-        <v>222225.39816973</v>
+        <v>245688.8832622729</v>
       </c>
       <c r="F6" t="n">
-        <v>222225.3981697299</v>
+        <v>245688.8832622728</v>
       </c>
       <c r="G6" t="n">
-        <v>157239.8784349809</v>
+        <v>209071.6665134623</v>
       </c>
       <c r="H6" t="n">
+        <v>275975.0628670948</v>
+      </c>
+      <c r="I6" t="n">
         <v>275975.062867095</v>
       </c>
-      <c r="I6" t="n">
-        <v>275975.0628670948</v>
-      </c>
       <c r="J6" t="n">
-        <v>84362.55969674226</v>
+        <v>34883.46977935807</v>
       </c>
       <c r="K6" t="n">
-        <v>275975.062867095</v>
+        <v>275975.0628670949</v>
       </c>
       <c r="L6" t="n">
-        <v>275975.0628670948</v>
+        <v>275975.0628670949</v>
       </c>
       <c r="M6" t="n">
         <v>275975.0628670949</v>
       </c>
       <c r="N6" t="n">
-        <v>275975.0628670949</v>
+        <v>275975.0628670948</v>
       </c>
       <c r="O6" t="n">
-        <v>222225.39816973</v>
+        <v>245688.8832622728</v>
       </c>
       <c r="P6" t="n">
-        <v>222225.39816973</v>
+        <v>245688.8832622729</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.4962492850939</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27439,10 +27441,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>261.7317683225312</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>8.211964027013522</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27555,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,7 +27596,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>4.874559219806258</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>196.2691568483911</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>127.2355941660193</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27789,7 +27791,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>8.064294293934609</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130045</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>165.1129956359962</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>202.9248285422126</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28023,13 +28025,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>163.844069095764</v>
+        <v>31.50271142837585</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34705,16 +34707,16 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>479.7617352891742</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>328.7641129846588</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34778,13 +34780,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>140.1884960996974</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>347.5439664572627</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>543.5954556656965</v>
@@ -34942,19 +34944,19 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>369.7304217619971</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>253.9151191946135</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>688.3272054397146</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>182.4496953818178</v>
+        <v>375.3871525877695</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>328.3029864149263</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>183.0050512865186</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>216.3525160087485</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="M12" t="n">
-        <v>623.7525150670029</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
@@ -35650,25 +35652,25 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>200.3975825626947</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>602.479762700964</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37157,10 +37159,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363516</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
         <v>711.0677682281761</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>675.9851016743296</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>390.8459044639355</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>617.4267863837744</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>602.4797627009638</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1629482.455915602</v>
+        <v>1627983.768606469</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446147</v>
+        <v>5562152.400446151</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7689629.991356682</v>
+        <v>7689629.991356683</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -667,7 +667,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>299.4725723875001</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -676,7 +676,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>118.1909295336519</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0897429533502</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>128.3097650166883</v>
       </c>
     </row>
     <row r="5">
@@ -913,7 +913,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>252.6871036901638</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>384.5392777992828</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>266.2723283900672</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>122.6636574936579</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>51.56505828087236</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1198,10 +1198,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>239.6441761814974</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1378,13 +1378,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>292.8230219137223</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>16.55447303929008</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.7165542762734</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>70.14310075445131</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1618,10 +1618,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>178.8846941420544</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>373.8316553010462</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>117.0302840219881</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>91.8634291666399</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>97.56310642661438</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -2298,7 +2298,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>22.88282737275503</v>
+        <v>188.4607145364671</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>360.5621482941648</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>98.94574135710778</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>187.1291969431396</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2572,7 +2572,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>205.293418382671</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2715,16 +2715,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -2766,10 +2766,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>87.08964901531073</v>
       </c>
       <c r="U28" t="n">
-        <v>1.438471529178141</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>243.833185100996</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>103.5299196315131</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>129.1752199258842</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>85.2997057160983</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>17.5675446452172</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>197.5289107028774</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3280,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4445328256823</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>30.96971084951643</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -3480,7 +3480,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>256.8454395874269</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>97.46748333863208</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>13.99263448916707</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -3711,7 +3711,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3723,10 +3723,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>28.0149076090946</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>143.3696275861548</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3751,10 +3751,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>178.8846941420544</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3957,7 +3957,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>262.253757051989</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.5952110672372</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>304.9100559934142</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>338.1753487462616</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>179.667585260291</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>124.9723602094808</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2132.40334945755</v>
+        <v>2331.469179212891</v>
       </c>
       <c r="C2" t="n">
-        <v>1722.27875877082</v>
+        <v>1921.344588526161</v>
       </c>
       <c r="D2" t="n">
-        <v>1317.814828863881</v>
+        <v>1516.880658619221</v>
       </c>
       <c r="E2" t="n">
-        <v>903.4746133807774</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F2" t="n">
-        <v>482.444201334465</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G2" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H2" t="n">
         <v>73.71591722729714</v>
@@ -4330,22 +4330,22 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K2" t="n">
-        <v>866.0608898040909</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L2" t="n">
-        <v>1578.652289616329</v>
+        <v>621.7910469133716</v>
       </c>
       <c r="M2" t="n">
-        <v>2354.970880608083</v>
+        <v>1398.109637905126</v>
       </c>
       <c r="N2" t="n">
-        <v>2354.970880608083</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O2" t="n">
-        <v>2998.601737025188</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P2" t="n">
         <v>3324.07820888</v>
@@ -4357,25 +4357,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T2" t="n">
-        <v>3463.589377311716</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U2" t="n">
-        <v>3463.589377311716</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V2" t="n">
-        <v>3463.589377311716</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W2" t="n">
-        <v>3344.204600004997</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X2" t="n">
-        <v>2943.561202173949</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="Y2" t="n">
-        <v>2542.624529122039</v>
+        <v>2337.649954836976</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>1639.306665514357</v>
       </c>
       <c r="J3" t="n">
-        <v>1832.11952307699</v>
+        <v>1639.306665514357</v>
       </c>
       <c r="K3" t="n">
-        <v>2287.925779342289</v>
+        <v>2095.112921779656</v>
       </c>
       <c r="L3" t="n">
-        <v>2287.925779342289</v>
+        <v>2756.201093698944</v>
       </c>
       <c r="M3" t="n">
-        <v>2287.925779342289</v>
+        <v>3599.17817439351</v>
       </c>
       <c r="N3" t="n">
-        <v>2287.925779342289</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="O3" t="n">
-        <v>2991.882869888183</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P3" t="n">
-        <v>3335.951396680874</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q3" t="n">
         <v>3685.795861364857</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>673.2658822114255</v>
+        <v>404.3039343426706</v>
       </c>
       <c r="C4" t="n">
-        <v>502.172509773142</v>
+        <v>233.2105619043871</v>
       </c>
       <c r="D4" t="n">
-        <v>342.677865096052</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
         <v>73.71591722729714</v>
@@ -4512,28 +4512,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S4" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="T4" t="n">
-        <v>1603.114813848147</v>
+        <v>1278.293356500249</v>
       </c>
       <c r="U4" t="n">
-        <v>1603.114813848147</v>
+        <v>995.4952090463732</v>
       </c>
       <c r="V4" t="n">
-        <v>1603.114813848147</v>
+        <v>721.6094639858952</v>
       </c>
       <c r="W4" t="n">
-        <v>1324.045149357022</v>
+        <v>721.6094639858952</v>
       </c>
       <c r="X4" t="n">
-        <v>1085.701287216705</v>
+        <v>721.6094639858952</v>
       </c>
       <c r="Y4" t="n">
-        <v>860.9655886054699</v>
+        <v>592.0036407367151</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2218.755112140477</v>
+        <v>2529.663609512759</v>
       </c>
       <c r="C5" t="n">
-        <v>1808.630521453747</v>
+        <v>2119.539018826029</v>
       </c>
       <c r="D5" t="n">
-        <v>1404.166591546807</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E5" t="n">
-        <v>989.8263760637043</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F5" t="n">
-        <v>568.7959640173918</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G5" t="n">
-        <v>160.067679910224</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H5" t="n">
         <v>160.067679910224</v>
@@ -4573,46 +4573,46 @@
         <v>866.0608898040909</v>
       </c>
       <c r="L5" t="n">
-        <v>1578.652289616329</v>
+        <v>942.9520537086636</v>
       </c>
       <c r="M5" t="n">
-        <v>2354.970880608083</v>
+        <v>1719.270644700418</v>
       </c>
       <c r="N5" t="n">
-        <v>2721.00399815246</v>
+        <v>2472.451661339036</v>
       </c>
       <c r="O5" t="n">
-        <v>3364.634854569565</v>
+        <v>3116.082517756141</v>
       </c>
       <c r="P5" t="n">
-        <v>3364.634854569565</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="Q5" t="n">
-        <v>3685.795861364857</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R5" t="n">
         <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U5" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V5" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="W5" t="n">
-        <v>3430.556362687924</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="X5" t="n">
-        <v>3029.912964856876</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="Y5" t="n">
-        <v>2628.976291804966</v>
+        <v>2939.884789177248</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>266.5287747899304</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K6" t="n">
-        <v>722.3350310552291</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L6" t="n">
-        <v>722.3350310552291</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M6" t="n">
-        <v>722.3350310552291</v>
+        <v>854.5421300433729</v>
       </c>
       <c r="N6" t="n">
-        <v>1179.095236542654</v>
+        <v>854.5421300433729</v>
       </c>
       <c r="O6" t="n">
-        <v>1179.095236542654</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P6" t="n">
-        <v>1740.801129031184</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q6" t="n">
-        <v>2090.645593715167</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R6" t="n">
         <v>2120.205113077797</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.71591722729714</v>
+        <v>404.3039343426706</v>
       </c>
       <c r="C7" t="n">
-        <v>73.71591722729714</v>
+        <v>233.2105619043871</v>
       </c>
       <c r="D7" t="n">
         <v>73.71591722729714</v>
@@ -4749,28 +4749,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S7" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T7" t="n">
-        <v>1091.901588380159</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U7" t="n">
-        <v>809.1034409262836</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V7" t="n">
-        <v>535.2176958658056</v>
+        <v>1334.152865979393</v>
       </c>
       <c r="W7" t="n">
-        <v>256.1480313746799</v>
+        <v>1055.083201488267</v>
       </c>
       <c r="X7" t="n">
-        <v>73.71591722729714</v>
+        <v>816.7393393479504</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.71591722729714</v>
+        <v>592.0036407367151</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2132.40334945755</v>
+        <v>1125.848704289529</v>
       </c>
       <c r="C8" t="n">
-        <v>1722.27875877082</v>
+        <v>715.7241136027993</v>
       </c>
       <c r="D8" t="n">
-        <v>1317.814828863881</v>
+        <v>311.2601836958598</v>
       </c>
       <c r="E8" t="n">
-        <v>903.4746133807774</v>
+        <v>300.9603722531606</v>
       </c>
       <c r="F8" t="n">
-        <v>482.444201334465</v>
+        <v>283.9703642472522</v>
       </c>
       <c r="G8" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71591722729714</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
         <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>73.71591722729714</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>611.8754183363367</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L8" t="n">
-        <v>983.5086993982285</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M8" t="n">
-        <v>1759.827290389982</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N8" t="n">
-        <v>2513.0083070286</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O8" t="n">
-        <v>3156.639163445705</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P8" t="n">
         <v>3685.795861364857</v>
@@ -4837,19 +4837,19 @@
         <v>3328.308302105817</v>
       </c>
       <c r="U8" t="n">
-        <v>3276.22238465039</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V8" t="n">
-        <v>2926.384829986871</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W8" t="n">
-        <v>2542.624529122039</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X8" t="n">
-        <v>2542.624529122039</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="Y8" t="n">
-        <v>2542.624529122039</v>
+        <v>1536.069883954019</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>266.5287747899304</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K9" t="n">
-        <v>722.3350310552291</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="L9" t="n">
-        <v>722.3350310552291</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="M9" t="n">
-        <v>722.3350310552291</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="N9" t="n">
-        <v>1179.095236542654</v>
+        <v>734.8040891465854</v>
       </c>
       <c r="O9" t="n">
-        <v>1179.095236542654</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P9" t="n">
-        <v>1740.801129031184</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q9" t="n">
-        <v>2090.645593715167</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R9" t="n">
         <v>2120.205113077797</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>244.8092896655806</v>
+        <v>1163.049767528434</v>
       </c>
       <c r="C10" t="n">
-        <v>73.71591722729714</v>
+        <v>991.9563950901502</v>
       </c>
       <c r="D10" t="n">
-        <v>73.71591722729714</v>
+        <v>832.4617504130601</v>
       </c>
       <c r="E10" t="n">
-        <v>73.71591722729714</v>
+        <v>671.5509352813797</v>
       </c>
       <c r="F10" t="n">
-        <v>73.71591722729714</v>
+        <v>506.9198093919709</v>
       </c>
       <c r="G10" t="n">
-        <v>73.71591722729714</v>
+        <v>339.6694183175143</v>
       </c>
       <c r="H10" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I10" t="n">
         <v>73.71591722729714</v>
@@ -4989,25 +4989,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1416.723045728058</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1416.723045728058</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.723045728058</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="V10" t="n">
-        <v>1174.658221302303</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="W10" t="n">
-        <v>895.5885568111769</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="X10" t="n">
-        <v>657.2446946708603</v>
+        <v>1575.485172533713</v>
       </c>
       <c r="Y10" t="n">
-        <v>432.508996059625</v>
+        <v>1350.749473922478</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1740.396755289059</v>
+        <v>1605.11568008316</v>
       </c>
       <c r="C11" t="n">
-        <v>1330.272164602329</v>
+        <v>1194.99108939643</v>
       </c>
       <c r="D11" t="n">
-        <v>925.8082346953897</v>
+        <v>790.5271594894907</v>
       </c>
       <c r="E11" t="n">
-        <v>511.4680192122864</v>
+        <v>494.7463292736096</v>
       </c>
       <c r="F11" t="n">
-        <v>90.43760716597399</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G11" t="n">
         <v>73.71591722729714</v>
@@ -5041,19 +5041,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>327.9013886950514</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K11" t="n">
-        <v>866.0608898040909</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L11" t="n">
-        <v>1578.652289616329</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M11" t="n">
-        <v>1759.827290389982</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N11" t="n">
-        <v>2513.0083070286</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O11" t="n">
         <v>3156.639163445705</v>
@@ -5068,25 +5068,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T11" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U11" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V11" t="n">
-        <v>3335.958306701338</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="W11" t="n">
-        <v>2952.198005836506</v>
+        <v>2816.916930630607</v>
       </c>
       <c r="X11" t="n">
-        <v>2551.554608005459</v>
+        <v>2416.27353279956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2150.617934953549</v>
+        <v>2015.33685974765</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L12" t="n">
-        <v>542.5899304202851</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="M12" t="n">
-        <v>542.5899304202851</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="N12" t="n">
-        <v>1416.248022531903</v>
+        <v>947.374009338915</v>
       </c>
       <c r="O12" t="n">
-        <v>2120.205113077797</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P12" t="n">
-        <v>2120.205113077797</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q12" t="n">
         <v>2120.205113077797</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1163.049767528434</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>991.9563950901502</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>832.4617504130601</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>671.5509352813797</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>506.9198093919709</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>339.6694183175143</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>190.061963122971</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
         <v>73.71591722729714</v>
@@ -5223,28 +5223,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1331.450327403457</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>1331.450327403457</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>1331.450327403457</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>1331.450327403457</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>1331.450327403457</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1331.450327403457</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1483.336263548569</v>
+        <v>1793.130375694509</v>
       </c>
       <c r="C14" t="n">
-        <v>1073.211672861839</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D14" t="n">
-        <v>668.7477429548999</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E14" t="n">
-        <v>254.4075274717966</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F14" t="n">
-        <v>73.71591722729714</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G14" t="n">
         <v>73.71591722729714</v>
@@ -5305,25 +5305,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T14" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U14" t="n">
-        <v>3428.735369624367</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="V14" t="n">
-        <v>3078.897814960848</v>
+        <v>2978.470747442298</v>
       </c>
       <c r="W14" t="n">
-        <v>2695.137514096016</v>
+        <v>2594.710446577466</v>
       </c>
       <c r="X14" t="n">
-        <v>2294.494116264969</v>
+        <v>2194.067048746419</v>
       </c>
       <c r="Y14" t="n">
-        <v>1893.557443213059</v>
+        <v>1793.130375694509</v>
       </c>
     </row>
     <row r="15">
@@ -5363,10 +5363,10 @@
         <v>73.71591722729714</v>
       </c>
       <c r="L15" t="n">
-        <v>73.71591722729714</v>
+        <v>573.2709418373363</v>
       </c>
       <c r="M15" t="n">
-        <v>542.5899304202851</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="N15" t="n">
         <v>1416.248022531903</v>
@@ -5460,25 +5460,25 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1517.842095523547</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1331.450327403457</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1091.901588380159</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U16" t="n">
-        <v>809.1034409262836</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V16" t="n">
-        <v>535.2176958658056</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W16" t="n">
-        <v>256.1480313746799</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X16" t="n">
-        <v>73.71591722729714</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y16" t="n">
         <v>73.71591722729714</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2134.851174492981</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1724.726583806251</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>644.659997958315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>644.659997958315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>644.659997958315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>644.659997958315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1111.429368843485</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>832.3597043523594</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>832.3597043523594</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>832.3597043523594</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
         <v>1734.602869382415</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4563.636292181024</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4341.429808127883</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4084.369316387393</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W20" t="n">
-        <v>3449.320053209158</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X20" t="n">
-        <v>3048.67665537811</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y20" t="n">
-        <v>2647.7399823262</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>1236.515282066875</v>
       </c>
       <c r="M21" t="n">
-        <v>754.331869609911</v>
+        <v>1236.515282066875</v>
       </c>
       <c r="N21" t="n">
-        <v>874.0699105066985</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="C22" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="D22" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E22" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G22" t="n">
         <v>359.19719878084</v>
@@ -5946,16 +5946,16 @@
         <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>805.5172543464223</v>
+        <v>638.2668632719657</v>
       </c>
       <c r="W22" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="X22" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="Y22" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6034,7 +6034,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="24">
@@ -6071,16 +6071,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4051.026465773143</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>4051.026465773143</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>4051.026465773143</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>4051.026465773143</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2237.518802661711</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C26" t="n">
-        <v>1827.394211974981</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.930282068041</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4182.917908737509</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V26" t="n">
-        <v>3833.080354073989</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W26" t="n">
-        <v>3449.320053209158</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X26" t="n">
-        <v>3048.67665537811</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y26" t="n">
-        <v>2647.7399823262</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="27">
@@ -6314,13 +6314,13 @@
         <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>1402.950983437843</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3737.083252513247</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="C28" t="n">
-        <v>3565.989880074963</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="D28" t="n">
-        <v>3565.989880074963</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E28" t="n">
-        <v>3565.989880074963</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>4150.971659063151</v>
+        <v>1263.008765427075</v>
       </c>
       <c r="U28" t="n">
-        <v>4149.518657518526</v>
+        <v>1263.008765427075</v>
       </c>
       <c r="V28" t="n">
-        <v>4149.518657518526</v>
+        <v>1263.008765427075</v>
       </c>
       <c r="W28" t="n">
-        <v>4149.518657518526</v>
+        <v>1263.008765427075</v>
       </c>
       <c r="X28" t="n">
-        <v>4149.518657518526</v>
+        <v>1263.008765427075</v>
       </c>
       <c r="Y28" t="n">
-        <v>3924.782958907291</v>
+        <v>1038.27306681584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6496,19 +6496,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,19 +6542,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4061.209023079746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3890.115650641462</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T31" t="n">
-        <v>4285.944721690981</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U31" t="n">
-        <v>4285.944721690981</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V31" t="n">
-        <v>4285.944721690981</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W31" t="n">
-        <v>4285.944721690981</v>
+        <v>462.0675799580952</v>
       </c>
       <c r="X31" t="n">
-        <v>4285.944721690981</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="Y31" t="n">
-        <v>4061.209023079746</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2324.444211508952</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1914.319620822223</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1509.855690915283</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>1095.51547543218</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>674.4850633858673</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>265.7567792786995</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
         <v>179.5954603735497</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4269.84331758475</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>3920.005762921231</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3536.245462056399</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2734.665391173442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.7425299376769</v>
+        <v>607.6240057411241</v>
       </c>
       <c r="C34" t="n">
-        <v>413.6491574993933</v>
+        <v>436.5306333028406</v>
       </c>
       <c r="D34" t="n">
-        <v>254.1545128223033</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U34" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V34" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W34" t="n">
-        <v>1196.702087168085</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X34" t="n">
-        <v>997.1779349429565</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.4422363317212</v>
+        <v>607.6240057411241</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3891.531821096053</v>
+        <v>726.204233320165</v>
       </c>
       <c r="C37" t="n">
-        <v>3891.531821096053</v>
+        <v>555.1108608818815</v>
       </c>
       <c r="D37" t="n">
-        <v>3891.531821096053</v>
+        <v>555.1108608818815</v>
       </c>
       <c r="E37" t="n">
-        <v>3730.621005964372</v>
+        <v>555.1108608818815</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>390.4797349924728</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>4150.971659063151</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U37" t="n">
-        <v>3891.531821096053</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V37" t="n">
-        <v>3891.531821096053</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W37" t="n">
-        <v>3891.531821096053</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="X37" t="n">
-        <v>3891.531821096053</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="Y37" t="n">
-        <v>3891.531821096053</v>
+        <v>913.9039397142094</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2459.725286714852</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C38" t="n">
-        <v>2049.600696028122</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1645.136766121183</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1230.796550638079</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>809.7661385917668</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>401.0378544845989</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4563.732881158784</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4341.526397105643</v>
       </c>
       <c r="U38" t="n">
-        <v>4405.12439279065</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V38" t="n">
-        <v>4055.286838127131</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W38" t="n">
-        <v>3671.526537262299</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X38" t="n">
-        <v>3270.883139431251</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y38" t="n">
-        <v>2869.946466379341</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="39">
@@ -7259,13 +7259,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3565.989880074963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C40" t="n">
-        <v>3565.989880074963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D40" t="n">
-        <v>3565.989880074963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E40" t="n">
-        <v>3565.989880074963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F40" t="n">
-        <v>3565.989880074963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G40" t="n">
-        <v>3398.739489000507</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H40" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>4390.520398086449</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>4150.971659063151</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U40" t="n">
-        <v>3868.173511609275</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V40" t="n">
-        <v>3594.287766548796</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W40" t="n">
-        <v>3565.989880074963</v>
+        <v>462.0675799580952</v>
       </c>
       <c r="X40" t="n">
-        <v>3565.989880074963</v>
+        <v>223.7237178177785</v>
       </c>
       <c r="Y40" t="n">
-        <v>3565.989880074963</v>
+        <v>223.7237178177785</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1483.336263548569</v>
+        <v>1867.096564413401</v>
       </c>
       <c r="C41" t="n">
-        <v>1073.211672861839</v>
+        <v>1722.27875877082</v>
       </c>
       <c r="D41" t="n">
-        <v>668.7477429548999</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E41" t="n">
-        <v>254.4075274717966</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F41" t="n">
-        <v>73.71591722729714</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G41" t="n">
         <v>73.71591722729714</v>
@@ -7414,19 +7414,19 @@
         <v>73.71591722729714</v>
       </c>
       <c r="K41" t="n">
-        <v>611.8754183363367</v>
+        <v>270.9172995859905</v>
       </c>
       <c r="L41" t="n">
-        <v>1324.466818148575</v>
+        <v>983.5086993982285</v>
       </c>
       <c r="M41" t="n">
-        <v>2100.785409140329</v>
+        <v>1759.827290389982</v>
       </c>
       <c r="N41" t="n">
-        <v>2853.966425778947</v>
+        <v>2513.0083070286</v>
       </c>
       <c r="O41" t="n">
-        <v>3497.597282196052</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P41" t="n">
         <v>3685.795861364857</v>
@@ -7450,13 +7450,13 @@
         <v>3078.897814960848</v>
       </c>
       <c r="W41" t="n">
-        <v>2695.137514096016</v>
+        <v>3078.897814960848</v>
       </c>
       <c r="X41" t="n">
-        <v>2294.494116264969</v>
+        <v>2678.2544171298</v>
       </c>
       <c r="Y41" t="n">
-        <v>1893.557443213059</v>
+        <v>2277.31774407789</v>
       </c>
     </row>
     <row r="42">
@@ -7490,16 +7490,16 @@
         <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>73.71591722729714</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K42" t="n">
-        <v>73.71591722729714</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L42" t="n">
-        <v>73.71591722729714</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="M42" t="n">
-        <v>542.5899304202851</v>
+        <v>1416.248022531903</v>
       </c>
       <c r="N42" t="n">
         <v>1416.248022531903</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2170.479514149218</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2325.031841871456</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2584.928942151516</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>2874.19299859201</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3155.03178098626</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3414.592391312734</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3620.267831562346</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>3685.795861364857</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>3446.247122341559</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>3163.448974887683</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>2889.563229827205</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W43" t="n">
-        <v>2610.493565336079</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X43" t="n">
-        <v>2372.149703195762</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y43" t="n">
-        <v>2156.396964744008</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2132.40334945755</v>
+        <v>1936.713281785066</v>
       </c>
       <c r="C44" t="n">
-        <v>1722.27875877082</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="D44" t="n">
-        <v>1317.814828863881</v>
+        <v>1628.723326236163</v>
       </c>
       <c r="E44" t="n">
-        <v>903.4746133807774</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F44" t="n">
-        <v>482.444201334465</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G44" t="n">
-        <v>73.71591722729714</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H44" t="n">
         <v>73.71591722729714</v>
@@ -7675,25 +7675,25 @@
         <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>3685.795861364857</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T44" t="n">
-        <v>3685.795861364857</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U44" t="n">
-        <v>3685.795861364857</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V44" t="n">
-        <v>3685.795861364857</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W44" t="n">
-        <v>3344.204600004997</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X44" t="n">
-        <v>2943.561202173949</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="Y44" t="n">
-        <v>2542.624529122039</v>
+        <v>1936.713281785066</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>722.3350310552291</v>
       </c>
       <c r="L45" t="n">
-        <v>722.3350310552291</v>
+        <v>1277.228032383231</v>
       </c>
       <c r="M45" t="n">
-        <v>722.3350310552291</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="N45" t="n">
-        <v>722.3350310552291</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="O45" t="n">
-        <v>1208.654755905284</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="P45" t="n">
-        <v>1770.360648393814</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q45" t="n">
         <v>2120.205113077797</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>405.5974341911624</v>
+        <v>681.5607953700251</v>
       </c>
       <c r="C46" t="n">
-        <v>405.5974341911624</v>
+        <v>510.4674229317415</v>
       </c>
       <c r="D46" t="n">
-        <v>405.5974341911624</v>
+        <v>350.9727782546515</v>
       </c>
       <c r="E46" t="n">
-        <v>405.5974341911624</v>
+        <v>190.061963122971</v>
       </c>
       <c r="F46" t="n">
-        <v>240.9663083017537</v>
+        <v>190.061963122971</v>
       </c>
       <c r="G46" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="H46" t="n">
-        <v>73.71591722729714</v>
+        <v>190.061963122971</v>
       </c>
       <c r="I46" t="n">
         <v>73.71591722729714</v>
@@ -7830,28 +7830,28 @@
         <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S46" t="n">
-        <v>1603.114813848147</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="T46" t="n">
-        <v>1603.114813848147</v>
+        <v>1278.293356500249</v>
       </c>
       <c r="U46" t="n">
-        <v>1421.632404494318</v>
+        <v>995.4952090463732</v>
       </c>
       <c r="V46" t="n">
-        <v>1147.74665943384</v>
+        <v>995.4952090463732</v>
       </c>
       <c r="W46" t="n">
-        <v>868.6769949427144</v>
+        <v>995.4952090463732</v>
       </c>
       <c r="X46" t="n">
-        <v>630.3331328023978</v>
+        <v>869.2605017640694</v>
       </c>
       <c r="Y46" t="n">
-        <v>405.5974341911624</v>
+        <v>869.2605017640694</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>649.0966401699908</v>
       </c>
       <c r="M2" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O2" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P2" t="n">
-        <v>422.413476265543</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>140.6860064961205</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>401.8036014600665</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8221,25 +8221,25 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>173.153240390696</v>
       </c>
       <c r="M5" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>462.6427125186164</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>178.5117997957786</v>
       </c>
       <c r="N6" t="n">
-        <v>514.5673383305425</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>470.8725506506143</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8467,10 +8467,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>743.321953824879</v>
+        <v>676.6685272602841</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8531,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>514.5673383305425</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>536.3885161299984</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
@@ -8555,7 +8555,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8698,13 +8698,13 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>276.2952757435641</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>398.9198136730141</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
@@ -8774,7 +8774,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>529.7246381472005</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -8783,13 +8783,13 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>321.6714250266351</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -9011,13 +9011,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704846</v>
       </c>
       <c r="M15" t="n">
-        <v>531.1743980747689</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>555.7634839606675</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>174.1409094511112</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,19 +9719,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>140.68600649612</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9962,16 +9962,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N27" t="n">
-        <v>230.0378556308711</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
@@ -10436,22 +10436,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,16 +10907,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11062,7 +11062,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>288.3297051870488</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11077,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>283.7489381988693</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
@@ -11138,19 +11138,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>531.1743980747689</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
@@ -11381,22 +11381,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>616.6125049502444</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>548.9835243030855</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23266,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>117.3737914145499</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>388.086528226806</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.10615505383055</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>335.8802440254112</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>237.9354137837949</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23901,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>45.95453060852651</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>36.36515802722576</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>248.2640602371182</v>
+        <v>82.6861730734062</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>45.55681957367977</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>181.0244246222293</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>223.0676163851326</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>150.0636026177542</v>
       </c>
       <c r="U28" t="n">
-        <v>278.531694450159</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>133.6233320015518</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>93.31312169923876</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>222.4997066824609</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>140.3321535851019</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>38.43151281603608</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.19646844041381</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>134.6081763141956</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>23.1247263919102</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>36.46078111520806</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>171.8300748409369</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25563,10 +25563,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>248.2640602371198</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>262.6537171937077</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>237.9354137837949</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>8.893130557884263</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.893130557885684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>101.1132887864484</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>41.74734910992146</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>100.3025807190461</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>110.9880633094327</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666191.9353307155</v>
+        <v>666191.9353307156</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666191.9353307154</v>
+        <v>666191.9353307155</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666191.9353307151</v>
+        <v>666191.9353307155</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666191.9353307154</v>
+        <v>666191.9353307153</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666191.9353307154</v>
+        <v>666191.9353307156</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666191.9353307153</v>
+        <v>666191.9353307154</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666191.9353307153</v>
+        <v>666191.9353307155</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666191.9353307155</v>
+        <v>666191.9353307157</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390917.7432778967</v>
+        <v>390917.7432778966</v>
       </c>
       <c r="C2" t="n">
-        <v>390917.7432778969</v>
+        <v>390917.7432778968</v>
       </c>
       <c r="D2" t="n">
-        <v>390917.7432778968</v>
+        <v>390917.7432778965</v>
       </c>
       <c r="E2" t="n">
         <v>302335.7050201343</v>
       </c>
       <c r="F2" t="n">
-        <v>302335.7050201342</v>
+        <v>302335.7050201343</v>
       </c>
       <c r="G2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="H2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="I2" t="n">
-        <v>347578.401042113</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="J2" t="n">
+        <v>347578.4010421126</v>
+      </c>
+      <c r="K2" t="n">
         <v>347578.4010421127</v>
-      </c>
-      <c r="K2" t="n">
-        <v>347578.4010421128</v>
       </c>
       <c r="L2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="M2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="N2" t="n">
         <v>347578.4010421127</v>
       </c>
       <c r="O2" t="n">
+        <v>302335.7050201345</v>
+      </c>
+      <c r="P2" t="n">
         <v>302335.7050201342</v>
-      </c>
-      <c r="P2" t="n">
-        <v>302335.7050201343</v>
       </c>
     </row>
     <row r="3">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>84888.90953886868</v>
+      </c>
+      <c r="C4" t="n">
         <v>84888.90953886867</v>
       </c>
-      <c r="C4" t="n">
-        <v>84888.9095388687</v>
-      </c>
       <c r="D4" t="n">
-        <v>84888.90953886867</v>
+        <v>84888.90953886868</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7246651156232</v>
+        <v>622.7246651156231</v>
       </c>
       <c r="F4" t="n">
         <v>622.7246651156232</v>
@@ -26438,10 +26438,10 @@
         <v>738.1279301446466</v>
       </c>
       <c r="I4" t="n">
+        <v>738.1279301446465</v>
+      </c>
+      <c r="J4" t="n">
         <v>738.1279301446466</v>
-      </c>
-      <c r="J4" t="n">
-        <v>738.1279301446465</v>
       </c>
       <c r="K4" t="n">
         <v>738.1279301446466</v>
@@ -26456,7 +26456,7 @@
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7246651156232</v>
+        <v>622.7246651156233</v>
       </c>
       <c r="P4" t="n">
         <v>622.7246651156232</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92421.60496576154</v>
+        <v>-92421.60496576167</v>
       </c>
       <c r="C6" t="n">
         <v>216377.1366462824</v>
       </c>
       <c r="D6" t="n">
-        <v>216377.1366462824</v>
+        <v>216377.136646282</v>
       </c>
       <c r="E6" t="n">
-        <v>245688.8832622729</v>
+        <v>245319.7914361989</v>
       </c>
       <c r="F6" t="n">
-        <v>245688.8832622728</v>
+        <v>245319.7914361988</v>
       </c>
       <c r="G6" t="n">
-        <v>209071.6665134623</v>
+        <v>208891.0859208131</v>
       </c>
       <c r="H6" t="n">
-        <v>275975.0628670948</v>
+        <v>275794.4822744458</v>
       </c>
       <c r="I6" t="n">
-        <v>275975.062867095</v>
+        <v>275794.4822744456</v>
       </c>
       <c r="J6" t="n">
-        <v>34883.46977935807</v>
+        <v>34702.88918670888</v>
       </c>
       <c r="K6" t="n">
-        <v>275975.0628670949</v>
+        <v>275794.4822744456</v>
       </c>
       <c r="L6" t="n">
-        <v>275975.0628670949</v>
+        <v>275794.4822744458</v>
       </c>
       <c r="M6" t="n">
-        <v>275975.0628670949</v>
+        <v>275794.4822744456</v>
       </c>
       <c r="N6" t="n">
-        <v>275975.0628670948</v>
+        <v>275794.4822744456</v>
       </c>
       <c r="O6" t="n">
-        <v>245688.8832622728</v>
+        <v>245319.791436199</v>
       </c>
       <c r="P6" t="n">
-        <v>245688.8832622729</v>
+        <v>245319.7914361987</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>110.7242409407721</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>261.7317683225312</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.211964027013522</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>94.17857660843458</v>
       </c>
     </row>
     <row r="5">
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27678,13 +27678,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>127.2355941660193</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>12.38802852210802</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.874559219806031</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.3526305130045</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>281.9773437724382</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>202.9248285422126</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -28070,13 +28070,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>31.50271142837585</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>553.6112421071459</v>
       </c>
       <c r="M2" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O2" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P2" t="n">
-        <v>328.7641129846588</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>87.49261310237046</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.5439664572627</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,25 +34941,25 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>77.66784232785115</v>
       </c>
       <c r="M5" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>369.7304217619971</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>375.3871525877695</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35187,10 +35187,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>650.1321781990958</v>
+        <v>583.478751634501</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
@@ -35275,7 +35275,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35418,13 +35418,13 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>183.0050512865186</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>650.1321781990958</v>
+        <v>305.7300380472309</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>263.9199460266351</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M15" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>499.6489601498184</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>120.9475160573612</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>87.49261310237</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N27" t="n">
-        <v>176.8444622371211</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>199.1933155138316</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37797,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>190.0995749179851</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363514</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
@@ -38101,22 +38101,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>491.2320453030855</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
